--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Spon2-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Spon2-Itgb1.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.6392876666666667</v>
+        <v>1.150782</v>
       </c>
       <c r="H2">
-        <v>1.917863</v>
+        <v>3.452345999999999</v>
       </c>
       <c r="I2">
-        <v>0.02178586938683698</v>
+        <v>0.03823856951930295</v>
       </c>
       <c r="J2">
-        <v>0.02178586938683698</v>
+        <v>0.03823856951930295</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>98.946724</v>
+        <v>168.1098273333333</v>
       </c>
       <c r="N2">
-        <v>296.840172</v>
+        <v>504.329482</v>
       </c>
       <c r="O2">
-        <v>0.2098009692989996</v>
+        <v>0.2984182258032519</v>
       </c>
       <c r="P2">
-        <v>0.2098009692989996</v>
+        <v>0.298418225803252</v>
       </c>
       <c r="Q2">
-        <v>63.25542031027067</v>
+        <v>193.4577633183079</v>
       </c>
       <c r="R2">
-        <v>569.298782792436</v>
+        <v>1741.119869864772</v>
       </c>
       <c r="S2">
-        <v>0.0045706965143798</v>
+        <v>0.0114110860732047</v>
       </c>
       <c r="T2">
-        <v>0.004570696514379801</v>
+        <v>0.0114110860732047</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.6392876666666667</v>
+        <v>1.150782</v>
       </c>
       <c r="H3">
-        <v>1.917863</v>
+        <v>3.452345999999999</v>
       </c>
       <c r="I3">
-        <v>0.02178586938683698</v>
+        <v>0.03823856951930295</v>
       </c>
       <c r="J3">
-        <v>0.02178586938683698</v>
+        <v>0.03823856951930295</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>489.018707</v>
       </c>
       <c r="O3">
-        <v>0.345629090707923</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="P3">
-        <v>0.3456290907079231</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="Q3">
-        <v>104.2078760514601</v>
+        <v>187.584641892958</v>
       </c>
       <c r="R3">
-        <v>937.870884463141</v>
+        <v>1688.261777036622</v>
       </c>
       <c r="S3">
-        <v>0.007529830226454042</v>
+        <v>0.01106466061602218</v>
       </c>
       <c r="T3">
-        <v>0.007529830226454044</v>
+        <v>0.01106466061602218</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.6392876666666667</v>
+        <v>1.150782</v>
       </c>
       <c r="H4">
-        <v>1.917863</v>
+        <v>3.452345999999999</v>
       </c>
       <c r="I4">
-        <v>0.02178586938683698</v>
+        <v>0.03823856951930295</v>
       </c>
       <c r="J4">
-        <v>0.02178586938683698</v>
+        <v>0.03823856951930295</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>144.2727966666667</v>
+        <v>165.99353</v>
       </c>
       <c r="N4">
-        <v>432.81839</v>
+        <v>497.98059</v>
       </c>
       <c r="O4">
-        <v>0.3059077790604178</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="P4">
-        <v>0.3059077790604179</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="Q4">
-        <v>92.23181954450779</v>
+        <v>191.02236644046</v>
       </c>
       <c r="R4">
-        <v>830.08637590057</v>
+        <v>1719.20129796414</v>
       </c>
       <c r="S4">
-        <v>0.006664466919027646</v>
+        <v>0.0112674344413505</v>
       </c>
       <c r="T4">
-        <v>0.006664466919027649</v>
+        <v>0.0112674344413505</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.6392876666666667</v>
+        <v>1.150782</v>
       </c>
       <c r="H5">
-        <v>1.917863</v>
+        <v>3.452345999999999</v>
       </c>
       <c r="I5">
-        <v>0.02178586938683698</v>
+        <v>0.03823856951930295</v>
       </c>
       <c r="J5">
-        <v>0.02178586938683698</v>
+        <v>0.03823856951930295</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>65.39610666666668</v>
+        <v>66.22673433333334</v>
       </c>
       <c r="N5">
-        <v>196.18832</v>
+        <v>198.680203</v>
       </c>
       <c r="O5">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="P5">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="Q5">
-        <v>41.80692444001779</v>
+        <v>76.212533789582</v>
       </c>
       <c r="R5">
-        <v>376.2623199601601</v>
+        <v>685.9128041062379</v>
       </c>
       <c r="S5">
-        <v>0.003020875726975488</v>
+        <v>0.004495388388725572</v>
       </c>
       <c r="T5">
-        <v>0.003020875726975489</v>
+        <v>0.004495388388725571</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>82.78383700000001</v>
       </c>
       <c r="I6">
-        <v>0.9403788801510861</v>
+        <v>0.9169230158851821</v>
       </c>
       <c r="J6">
-        <v>0.9403788801510863</v>
+        <v>0.916923015885182</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>98.946724</v>
+        <v>168.1098273333333</v>
       </c>
       <c r="N6">
-        <v>296.840172</v>
+        <v>504.329482</v>
       </c>
       <c r="O6">
-        <v>0.2098009692989996</v>
+        <v>0.2984182258032519</v>
       </c>
       <c r="P6">
-        <v>0.2098009692989996</v>
+        <v>0.298418225803252</v>
       </c>
       <c r="Q6">
-        <v>2730.396490433329</v>
+        <v>4638.925514686937</v>
       </c>
       <c r="R6">
-        <v>24573.56841389996</v>
+        <v>41750.32963218244</v>
       </c>
       <c r="S6">
-        <v>0.1972924005640056</v>
+        <v>0.273626539598623</v>
       </c>
       <c r="T6">
-        <v>0.1972924005640057</v>
+        <v>0.273626539598623</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>82.78383700000001</v>
       </c>
       <c r="I7">
-        <v>0.9403788801510861</v>
+        <v>0.9169230158851821</v>
       </c>
       <c r="J7">
-        <v>0.9403788801510863</v>
+        <v>0.916923015885182</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>489.018707</v>
       </c>
       <c r="O7">
-        <v>0.345629090707923</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="P7">
-        <v>0.3456290907079231</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="Q7">
         <v>4498.09388113764</v>
@@ -883,10 +883,10 @@
         <v>40482.84493023876</v>
       </c>
       <c r="S7">
-        <v>0.3250222972675548</v>
+        <v>0.2653196003231137</v>
       </c>
       <c r="T7">
-        <v>0.3250222972675549</v>
+        <v>0.2653196003231137</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>82.78383700000001</v>
       </c>
       <c r="I8">
-        <v>0.9403788801510861</v>
+        <v>0.9169230158851821</v>
       </c>
       <c r="J8">
-        <v>0.9403788801510863</v>
+        <v>0.916923015885182</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>144.2727966666667</v>
+        <v>165.99353</v>
       </c>
       <c r="N8">
-        <v>432.81839</v>
+        <v>497.98059</v>
       </c>
       <c r="O8">
-        <v>0.3059077790604178</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="P8">
-        <v>0.3059077790604179</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="Q8">
-        <v>3981.151894262492</v>
+        <v>4580.527110191537</v>
       </c>
       <c r="R8">
-        <v>35830.36704836244</v>
+        <v>41224.74399172383</v>
       </c>
       <c r="S8">
-        <v>0.2876692147023416</v>
+        <v>0.2701819157758076</v>
       </c>
       <c r="T8">
-        <v>0.2876692147023417</v>
+        <v>0.2701819157758076</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>82.78383700000001</v>
       </c>
       <c r="I9">
-        <v>0.9403788801510861</v>
+        <v>0.9169230158851821</v>
       </c>
       <c r="J9">
-        <v>0.9403788801510863</v>
+        <v>0.916923015885182</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>65.39610666666668</v>
+        <v>66.22673433333334</v>
       </c>
       <c r="N9">
-        <v>196.18832</v>
+        <v>198.680203</v>
       </c>
       <c r="O9">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="P9">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="Q9">
-        <v>1804.580211575983</v>
+        <v>1827.50106003099</v>
       </c>
       <c r="R9">
-        <v>16241.22190418384</v>
+        <v>16447.50954027891</v>
       </c>
       <c r="S9">
-        <v>0.130394967617184</v>
+        <v>0.1077949601876378</v>
       </c>
       <c r="T9">
-        <v>0.130394967617184</v>
+        <v>0.1077949601876377</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.027521</v>
+        <v>1.290098666666667</v>
       </c>
       <c r="H10">
-        <v>3.082562999999999</v>
+        <v>3.870296</v>
       </c>
       <c r="I10">
-        <v>0.03501622112460397</v>
+        <v>0.04286783035543951</v>
       </c>
       <c r="J10">
-        <v>0.03501622112460398</v>
+        <v>0.0428678303554395</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>98.946724</v>
+        <v>168.1098273333333</v>
       </c>
       <c r="N10">
-        <v>296.840172</v>
+        <v>504.329482</v>
       </c>
       <c r="O10">
-        <v>0.2098009692989996</v>
+        <v>0.2984182258032519</v>
       </c>
       <c r="P10">
-        <v>0.2098009692989996</v>
+        <v>0.298418225803252</v>
       </c>
       <c r="Q10">
-        <v>101.669836791204</v>
+        <v>216.8782640962968</v>
       </c>
       <c r="R10">
-        <v>915.0285311208359</v>
+        <v>1951.904376866672</v>
       </c>
       <c r="S10">
-        <v>0.007346437133130019</v>
+        <v>0.01279254187870505</v>
       </c>
       <c r="T10">
-        <v>0.007346437133130021</v>
+        <v>0.01279254187870505</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.027521</v>
+        <v>1.290098666666667</v>
       </c>
       <c r="H11">
-        <v>3.082562999999999</v>
+        <v>3.870296</v>
       </c>
       <c r="I11">
-        <v>0.03501622112460397</v>
+        <v>0.04286783035543951</v>
       </c>
       <c r="J11">
-        <v>0.03501622112460398</v>
+        <v>0.0428678303554395</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>489.018707</v>
       </c>
       <c r="O11">
-        <v>0.345629090707923</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="P11">
-        <v>0.3456290907079231</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="Q11">
-        <v>167.492330278449</v>
+        <v>210.2941272919191</v>
       </c>
       <c r="R11">
-        <v>1507.430972506041</v>
+        <v>1892.647145627272</v>
       </c>
       <c r="S11">
-        <v>0.01210262466732444</v>
+        <v>0.01240417725324988</v>
       </c>
       <c r="T11">
-        <v>0.01210262466732444</v>
+        <v>0.01240417725324987</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.027521</v>
+        <v>1.290098666666667</v>
       </c>
       <c r="H12">
-        <v>3.082562999999999</v>
+        <v>3.870296</v>
       </c>
       <c r="I12">
-        <v>0.03501622112460397</v>
+        <v>0.04286783035543951</v>
       </c>
       <c r="J12">
-        <v>0.03501622112460398</v>
+        <v>0.0428678303554395</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>144.2727966666667</v>
+        <v>165.99353</v>
       </c>
       <c r="N12">
-        <v>432.81839</v>
+        <v>497.98059</v>
       </c>
       <c r="O12">
-        <v>0.3059077790604178</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="P12">
-        <v>0.3059077790604179</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="Q12">
-        <v>148.24332830373</v>
+        <v>214.1480317282933</v>
       </c>
       <c r="R12">
-        <v>1334.18995473357</v>
+        <v>1927.33228555464</v>
       </c>
       <c r="S12">
-        <v>0.01071173443531609</v>
+        <v>0.01263149940609113</v>
       </c>
       <c r="T12">
-        <v>0.01071173443531609</v>
+        <v>0.01263149940609113</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.027521</v>
+        <v>1.290098666666667</v>
       </c>
       <c r="H13">
-        <v>3.082562999999999</v>
+        <v>3.870296</v>
       </c>
       <c r="I13">
-        <v>0.03501622112460397</v>
+        <v>0.04286783035543951</v>
       </c>
       <c r="J13">
-        <v>0.03501622112460398</v>
+        <v>0.0428678303554395</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>65.39610666666668</v>
+        <v>66.22673433333334</v>
       </c>
       <c r="N13">
-        <v>196.18832</v>
+        <v>198.680203</v>
       </c>
       <c r="O13">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="P13">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="Q13">
-        <v>67.19587291824001</v>
+        <v>85.43902166112089</v>
       </c>
       <c r="R13">
-        <v>604.76285626416</v>
+        <v>768.9511949500879</v>
       </c>
       <c r="S13">
-        <v>0.004855424888833426</v>
+        <v>0.005039611817393456</v>
       </c>
       <c r="T13">
-        <v>0.004855424888833428</v>
+        <v>0.005039611817393455</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.082722</v>
+        <v>0.05930433333333333</v>
       </c>
       <c r="H14">
-        <v>0.248166</v>
+        <v>0.177913</v>
       </c>
       <c r="I14">
-        <v>0.002819029337472899</v>
+        <v>0.001970584240075516</v>
       </c>
       <c r="J14">
-        <v>0.002819029337472899</v>
+        <v>0.001970584240075516</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>98.946724</v>
+        <v>168.1098273333333</v>
       </c>
       <c r="N14">
-        <v>296.840172</v>
+        <v>504.329482</v>
       </c>
       <c r="O14">
-        <v>0.2098009692989996</v>
+        <v>0.2984182258032519</v>
       </c>
       <c r="P14">
-        <v>0.2098009692989996</v>
+        <v>0.298418225803252</v>
       </c>
       <c r="Q14">
-        <v>8.185070902728</v>
+        <v>9.96964123678511</v>
       </c>
       <c r="R14">
-        <v>73.665638124552</v>
+        <v>89.72677113106599</v>
       </c>
       <c r="S14">
-        <v>0.0005914350874841308</v>
+        <v>0.0005880582527191849</v>
       </c>
       <c r="T14">
-        <v>0.0005914350874841309</v>
+        <v>0.0005880582527191849</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.082722</v>
+        <v>0.05930433333333333</v>
       </c>
       <c r="H15">
-        <v>0.248166</v>
+        <v>0.177913</v>
       </c>
       <c r="I15">
-        <v>0.002819029337472899</v>
+        <v>0.001970584240075516</v>
       </c>
       <c r="J15">
-        <v>0.002819029337472899</v>
+        <v>0.001970584240075516</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>489.018707</v>
       </c>
       <c r="O15">
-        <v>0.345629090707923</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="P15">
-        <v>0.3456290907079231</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="Q15">
-        <v>13.484201826818</v>
+        <v>9.666976135387888</v>
       </c>
       <c r="R15">
-        <v>121.357816441362</v>
+        <v>87.002785218491</v>
       </c>
       <c r="S15">
-        <v>0.0009743385465897167</v>
+        <v>0.0005702055831537033</v>
       </c>
       <c r="T15">
-        <v>0.000974338546589717</v>
+        <v>0.0005702055831537032</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.082722</v>
+        <v>0.05930433333333333</v>
       </c>
       <c r="H16">
-        <v>0.248166</v>
+        <v>0.177913</v>
       </c>
       <c r="I16">
-        <v>0.002819029337472899</v>
+        <v>0.001970584240075516</v>
       </c>
       <c r="J16">
-        <v>0.002819029337472899</v>
+        <v>0.001970584240075516</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>144.2727966666667</v>
+        <v>165.99353</v>
       </c>
       <c r="N16">
-        <v>432.81839</v>
+        <v>497.98059</v>
       </c>
       <c r="O16">
-        <v>0.3059077790604178</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="P16">
-        <v>0.3059077790604179</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="Q16">
-        <v>11.93453428586</v>
+        <v>9.844135634296665</v>
       </c>
       <c r="R16">
-        <v>107.41080857274</v>
+        <v>88.59722070866999</v>
       </c>
       <c r="S16">
-        <v>0.0008623630037324955</v>
+        <v>0.000580655317793753</v>
       </c>
       <c r="T16">
-        <v>0.0008623630037324959</v>
+        <v>0.0005806553177937529</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.082722</v>
+        <v>0.05930433333333333</v>
       </c>
       <c r="H17">
-        <v>0.248166</v>
+        <v>0.177913</v>
       </c>
       <c r="I17">
-        <v>0.002819029337472899</v>
+        <v>0.001970584240075516</v>
       </c>
       <c r="J17">
-        <v>0.002819029337472899</v>
+        <v>0.001970584240075516</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>65.39610666666668</v>
+        <v>66.22673433333334</v>
       </c>
       <c r="N17">
-        <v>196.18832</v>
+        <v>198.680203</v>
       </c>
       <c r="O17">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="P17">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="Q17">
-        <v>5.409696735680002</v>
+        <v>3.927532328482111</v>
       </c>
       <c r="R17">
-        <v>48.68727062112001</v>
+        <v>35.347790956339</v>
       </c>
       <c r="S17">
-        <v>0.0003908926996665555</v>
+        <v>0.0002316650864088747</v>
       </c>
       <c r="T17">
-        <v>0.0003908926996665556</v>
+        <v>0.0002316650864088746</v>
       </c>
     </row>
   </sheetData>
